--- a/MKLab5Results.xlsx
+++ b/MKLab5Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>№</t>
   </si>
@@ -23,10 +23,10 @@
     <t>Количество баллов</t>
   </si>
   <si>
-    <t>Я</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>Я</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,7 +96,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>788.0</v>
+        <v>944.0</v>
       </c>
     </row>
     <row r="3">
@@ -107,7 +107,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>223.0</v>
+        <v>788.0</v>
       </c>
     </row>
     <row r="4">
@@ -115,10 +115,10 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0</v>
+        <v>223.0</v>
       </c>
     </row>
     <row r="5">
@@ -126,10 +126,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>116.0</v>
+        <v>151.0</v>
       </c>
     </row>
     <row r="6">
@@ -137,10 +137,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>67.0</v>
+        <v>116.0</v>
       </c>
     </row>
     <row r="7">
@@ -148,9 +148,20 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
+        <v>67.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
         <v>31.0</v>
       </c>
     </row>
